--- a/Nam3_HK1/CSDL_SQL_Plus/Baitap/Tuan11/BTap.xlsx
+++ b/Nam3_HK1/CSDL_SQL_Plus/Baitap/Tuan11/BTap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\SGU-Course\Nam3_HK1\CSDL_SQL_Plus\Baitap\Tuan11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E315BB1-EAD7-47BB-85A2-CCC7236929F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AFC81C-3CF9-4594-84C0-A849049C8915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{88E02BB5-18DC-4D8D-A50A-9D70CEF122C2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>r</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Zipcode</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
@@ -108,7 +111,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,12 +127,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -161,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -169,9 +166,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -488,20 +482,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7EAA01-9FA6-4241-AC58-07A4C2D419DD}">
-  <dimension ref="A29:Q39"/>
+  <dimension ref="A29:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="20.77734375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="12.77734375" style="1" customWidth="1"/>
-    <col min="7" max="10" width="25.77734375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="40.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="28.77734375" style="1" customWidth="1"/>
     <col min="13" max="13" width="28.6640625" style="1" customWidth="1"/>
     <col min="14" max="16" width="42.88671875" style="1" customWidth="1"/>
@@ -509,7 +508,7 @@
     <col min="18" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>8</v>
       </c>
@@ -528,41 +527,8 @@
       <c r="F29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N29" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="O29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="P29" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q29" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>150</v>
       </c>
@@ -581,52 +547,8 @@
       <c r="F30" s="3">
         <v>1</v>
       </c>
-      <c r="G30" s="3">
-        <f>ROUND(B30/A30, 0)</f>
-        <v>3</v>
-      </c>
-      <c r="H30" s="3">
-        <f>ROUND(E30/G30, 0)</f>
-        <v>10000</v>
-      </c>
-      <c r="I30" s="3">
-        <f>(D30+C30)*F30</f>
-        <v>16</v>
-      </c>
-      <c r="J30" s="3">
-        <f>ROUND(B30/I30, 0)</f>
-        <v>32</v>
-      </c>
-      <c r="K30" s="3">
-        <f>ROUND(E30/J30, 0)</f>
-        <v>938</v>
-      </c>
-      <c r="L30" s="3">
-        <f>ROUNDUP(LOG(K30, 2), 0)+1</f>
-        <v>11</v>
-      </c>
-      <c r="M30" s="3">
-        <f>ROUNDUP(H30/2, 0)</f>
-        <v>5000</v>
-      </c>
-      <c r="N30" s="3">
-        <f>ROUND(LOG(H30,2), 0)</f>
-        <v>13</v>
-      </c>
-      <c r="O30" s="3">
-        <f>H30</f>
-        <v>10000</v>
-      </c>
-      <c r="P30" s="3">
-        <f>ROUND(O30/J30, 0)</f>
-        <v>313</v>
-      </c>
-      <c r="Q30" s="3">
-        <f>ROUNDUP(LOG(P30,2), 0) + 1</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>40</v>
       </c>
@@ -645,52 +567,8 @@
       <c r="F31" s="3">
         <v>1</v>
       </c>
-      <c r="G31" s="3">
-        <f>ROUND(B31/A31, 0)</f>
-        <v>102</v>
-      </c>
-      <c r="H31" s="3">
-        <f>ROUNDUP(E31/G31, 0)</f>
-        <v>5883</v>
-      </c>
-      <c r="I31" s="3">
-        <f>(D31+C31)*F31</f>
-        <v>15</v>
-      </c>
-      <c r="J31" s="3">
-        <f>ROUND(B31/I31, 0)</f>
-        <v>273</v>
-      </c>
-      <c r="K31" s="3">
-        <f>ROUND(E31/J31, 0)</f>
-        <v>2198</v>
-      </c>
-      <c r="L31" s="3">
-        <f>ROUNDUP(LOG(K31, 2), 0)+1</f>
-        <v>13</v>
-      </c>
-      <c r="M31" s="3">
-        <f t="shared" ref="M31:M32" si="0">ROUNDUP(H31/2, 0)</f>
-        <v>2942</v>
-      </c>
-      <c r="N31" s="3">
-        <f t="shared" ref="N31:N32" si="1">ROUND(LOG(H31,2), 0)</f>
-        <v>13</v>
-      </c>
-      <c r="O31" s="3">
-        <f t="shared" ref="O31:O32" si="2">H31</f>
-        <v>5883</v>
-      </c>
-      <c r="P31" s="3">
-        <f>ROUND(O31/J31, 0)</f>
-        <v>22</v>
-      </c>
-      <c r="Q31" s="3">
-        <f t="shared" ref="Q31:Q39" si="3">ROUNDUP(LOG(P31,2), 0) + 1</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>40</v>
       </c>
@@ -709,52 +587,8 @@
       <c r="F32" s="3">
         <v>500</v>
       </c>
-      <c r="G32" s="3">
-        <f>ROUND(B32/A32, 0)</f>
-        <v>102</v>
-      </c>
-      <c r="H32" s="3">
-        <f>ROUND(E32/G32, 0)</f>
-        <v>5882</v>
-      </c>
-      <c r="I32" s="3">
-        <f>(D32+C32)*F32</f>
-        <v>5500</v>
-      </c>
-      <c r="J32" s="3">
-        <f>ROUND(B32/I32, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="K32" s="3">
-        <f>ROUND(E32/J32, 0)</f>
-        <v>600000</v>
-      </c>
-      <c r="L32" s="3">
-        <f>ROUND(LOG(K32, 2), 0)+1</f>
-        <v>20</v>
-      </c>
-      <c r="M32" s="3">
-        <f t="shared" si="0"/>
-        <v>2941</v>
-      </c>
-      <c r="N32" s="3">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="O32" s="3">
-        <f t="shared" si="2"/>
-        <v>5882</v>
-      </c>
-      <c r="P32" s="3">
-        <f>ROUND(O32/J32, 0)</f>
-        <v>5882</v>
-      </c>
-      <c r="Q32" s="3">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>40</v>
       </c>
@@ -773,360 +607,552 @@
       <c r="F33" s="3">
         <v>1</v>
       </c>
-      <c r="G33" s="3">
-        <f>ROUND(B33/A33, 0)</f>
-        <v>102</v>
-      </c>
-      <c r="H33" s="3">
-        <f>ROUND(E33/G33, 0)</f>
-        <v>5882</v>
-      </c>
-      <c r="I33" s="3">
-        <f>D33+C33</f>
-        <v>15</v>
-      </c>
-      <c r="J33" s="3">
-        <f>ROUND(B33/I33, 0)</f>
-        <v>273</v>
-      </c>
-      <c r="K33" s="3">
-        <f>ROUND(E33/J33, 0)</f>
-        <v>2198</v>
-      </c>
-      <c r="L33" s="3">
-        <f>ROUND(LOG(K33, 2), 0)+1</f>
-        <v>12</v>
-      </c>
-      <c r="M33" s="3">
-        <f>H33/2</f>
-        <v>2941</v>
-      </c>
-      <c r="N33" s="3">
-        <f>ROUND(LOG(H33,2), 0)</f>
-        <v>13</v>
-      </c>
-      <c r="O33" s="3">
-        <f>H33</f>
-        <v>5882</v>
-      </c>
-      <c r="P33" s="3">
-        <f>ROUND(O33/J33, 0)</f>
-        <v>22</v>
-      </c>
-      <c r="Q33" s="3">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="3" t="e">
-        <f>ROUND(B34/A34, 0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H34" s="3" t="e">
-        <f>ROUND(E34/G34, 0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I34" s="3">
-        <f>D34+C34</f>
-        <v>0</v>
-      </c>
-      <c r="J34" s="3" t="e">
-        <f>ROUND(B34/I34, 0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K34" s="3" t="e">
-        <f>ROUND(E34/J34, 0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L34" s="3" t="e">
-        <f>ROUND(LOG(K34, 2), 0)+1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M34" s="3" t="e">
-        <f>H34/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N34" s="3" t="e">
-        <f>ROUND(LOG(H34,2), 0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O34" s="3" t="e">
-        <f>H34</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P34" s="3" t="e">
-        <f>ROUND(O34/J34, 0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q34" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="3" t="e">
-        <f>ROUND(B35/A35, 0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H35" s="3" t="e">
-        <f>ROUND(E35/G35, 0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I35" s="3">
-        <f>D35+C35</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="3" t="e">
-        <f>ROUND(B35/I35, 0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K35" s="3" t="e">
-        <f>ROUND(E35/J35, 0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L35" s="3" t="e">
-        <f>ROUND(LOG(K35, 2), 0)+1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M35" s="3" t="e">
-        <f>H35/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N35" s="3" t="e">
-        <f>ROUND(LOG(H35,2), 0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O35" s="3" t="e">
-        <f>H35</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P35" s="3" t="e">
-        <f>ROUND(O35/J35, 0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q35" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="3" t="e">
-        <f>ROUND(B36/A36, 0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H36" s="3" t="e">
-        <f>ROUND(E36/G36, 0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I36" s="3">
-        <f>D36+C36</f>
-        <v>0</v>
-      </c>
-      <c r="J36" s="3" t="e">
-        <f>ROUND(B36/I36, 0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K36" s="3" t="e">
-        <f>ROUND(E36/J36, 0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L36" s="3" t="e">
-        <f>ROUND(LOG(K36, 2), 0)+1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M36" s="3" t="e">
-        <f>H36/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N36" s="3" t="e">
-        <f>ROUND(LOG(H36,2), 0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O36" s="3" t="e">
-        <f>H36</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P36" s="3" t="e">
-        <f>ROUND(O36/J36, 0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q36" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="3" t="e">
-        <f>ROUND(B37/A37, 0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H37" s="3" t="e">
-        <f>ROUND(E37/G37, 0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I37" s="3">
-        <f>D37+C37</f>
-        <v>0</v>
-      </c>
-      <c r="J37" s="3" t="e">
-        <f>ROUND(B37/I37, 0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K37" s="3" t="e">
-        <f>ROUND(E37/J37, 0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L37" s="3" t="e">
-        <f>ROUND(LOG(K37, 2), 0)+1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M37" s="3" t="e">
-        <f>H37/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N37" s="3" t="e">
-        <f>ROUND(LOG(H37,2), 0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O37" s="3" t="e">
-        <f>H37</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P37" s="3" t="e">
-        <f>ROUND(O37/J37, 0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q37" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="3" t="e">
-        <f>ROUND(B38/A38, 0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H38" s="3" t="e">
-        <f>ROUND(E38/G38, 0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I38" s="3">
-        <f>D38+C38</f>
-        <v>0</v>
-      </c>
-      <c r="J38" s="3" t="e">
-        <f>ROUND(B38/I38, 0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K38" s="3" t="e">
-        <f>ROUND(E38/J38, 0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L38" s="3" t="e">
-        <f>ROUND(LOG(K38, 2), 0)+1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M38" s="3" t="e">
-        <f>H38/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N38" s="3" t="e">
-        <f>ROUND(LOG(H38,2), 0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O38" s="3" t="e">
-        <f>H38</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P38" s="3" t="e">
-        <f>ROUND(O38/J38, 0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q38" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="3" t="e">
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D43" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <f>ROUND(B30/A30, 0)</f>
+        <v>3</v>
+      </c>
+      <c r="B46" s="3">
+        <f>ROUND(E30/A46, 0)</f>
+        <v>10000</v>
+      </c>
+      <c r="C46" s="3">
+        <f>(D30+C30)*F30</f>
+        <v>16</v>
+      </c>
+      <c r="D46" s="3">
+        <f>ROUND(B30/C46, 0)</f>
+        <v>32</v>
+      </c>
+      <c r="E46" s="3">
+        <f>ROUND(E30/D46, 0)</f>
+        <v>938</v>
+      </c>
+      <c r="F46" s="3">
+        <f>ROUNDUP(LOG(E46, 2), 0)+1</f>
+        <v>11</v>
+      </c>
+      <c r="G46" s="3">
+        <f>ROUNDUP(B46/2, 0)</f>
+        <v>5000</v>
+      </c>
+      <c r="H46" s="3">
+        <f>ROUND(LOG(B46,2), 0)</f>
+        <v>13</v>
+      </c>
+      <c r="I46" s="3">
+        <f>B46</f>
+        <v>10000</v>
+      </c>
+      <c r="J46" s="3">
+        <f t="shared" ref="J46:J55" si="0">ROUND(I46/D46, 0)</f>
+        <v>313</v>
+      </c>
+      <c r="K46" s="3">
+        <f>ROUNDUP(LOG(J46,2), 0) + 1</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <f>ROUND(B31/A31, 0)</f>
+        <v>102</v>
+      </c>
+      <c r="B47" s="3">
+        <f>ROUNDUP(E31/A47, 0)</f>
+        <v>5883</v>
+      </c>
+      <c r="C47" s="3">
+        <f>(D31+C31)*F31</f>
+        <v>15</v>
+      </c>
+      <c r="D47" s="3">
+        <f>ROUND(B31/C47, 0)</f>
+        <v>273</v>
+      </c>
+      <c r="E47" s="3">
+        <f>ROUND(E31/D47, 0)</f>
+        <v>2198</v>
+      </c>
+      <c r="F47" s="3">
+        <f>ROUNDUP(LOG(E47, 2), 0)+1</f>
+        <v>13</v>
+      </c>
+      <c r="G47" s="3">
+        <f t="shared" ref="G47:G48" si="1">ROUNDUP(B47/2, 0)</f>
+        <v>2942</v>
+      </c>
+      <c r="H47" s="3">
+        <f t="shared" ref="H47:H48" si="2">ROUND(LOG(B47,2), 0)</f>
+        <v>13</v>
+      </c>
+      <c r="I47" s="3">
+        <f t="shared" ref="I47:I48" si="3">B47</f>
+        <v>5883</v>
+      </c>
+      <c r="J47" s="3">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="K47" s="3">
+        <f t="shared" ref="K47:K55" si="4">ROUNDUP(LOG(J47,2), 0) + 1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <f>ROUND(B32/A32, 0)</f>
+        <v>102</v>
+      </c>
+      <c r="B48" s="3">
+        <f>ROUND(E32/A48, 0)</f>
+        <v>5882</v>
+      </c>
+      <c r="C48" s="3">
+        <f>(D32+C32)*F32</f>
+        <v>5500</v>
+      </c>
+      <c r="D48" s="3">
+        <f>ROUND(B32/C48, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="E48" s="3">
+        <f>ROUND(E32/D48, 0)</f>
+        <v>600000</v>
+      </c>
+      <c r="F48" s="3">
+        <f t="shared" ref="F48:F55" si="5">ROUND(LOG(E48, 2), 0)+1</f>
+        <v>20</v>
+      </c>
+      <c r="G48" s="3">
+        <f t="shared" si="1"/>
+        <v>2941</v>
+      </c>
+      <c r="H48" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="I48" s="3">
+        <f t="shared" si="3"/>
+        <v>5882</v>
+      </c>
+      <c r="J48" s="3">
+        <f t="shared" si="0"/>
+        <v>5882</v>
+      </c>
+      <c r="K48" s="3">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <f>ROUND(B33/A33, 0)</f>
+        <v>102</v>
+      </c>
+      <c r="B49" s="3">
+        <f>ROUND(E33/A49, 0)</f>
+        <v>5882</v>
+      </c>
+      <c r="C49" s="3">
+        <f>D33+C33</f>
+        <v>15</v>
+      </c>
+      <c r="D49" s="3">
+        <f>ROUND(B33/C49, 0)</f>
+        <v>273</v>
+      </c>
+      <c r="E49" s="3">
+        <f>ROUND(E33/D49, 0)</f>
+        <v>2198</v>
+      </c>
+      <c r="F49" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="G49" s="3">
+        <f t="shared" ref="G49:G55" si="6">B49/2</f>
+        <v>2941</v>
+      </c>
+      <c r="H49" s="3">
+        <f t="shared" ref="H49:H55" si="7">ROUND(LOG(B49,2), 0)</f>
+        <v>13</v>
+      </c>
+      <c r="I49" s="3">
+        <f t="shared" ref="I49:I55" si="8">B49</f>
+        <v>5882</v>
+      </c>
+      <c r="J49" s="3">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="K49" s="3">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="e">
+        <f>ROUND(B34/A34, 0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B50" s="3" t="e">
+        <f>ROUND(E34/A50, 0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C50" s="3">
+        <f>D34+C34</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="3" t="e">
+        <f>ROUND(B34/C50, 0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E50" s="3" t="e">
+        <f>ROUND(E34/D50, 0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F50" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G50" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H50" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I50" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J50" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K50" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="e">
+        <f>ROUND(B35/A35, 0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B51" s="3" t="e">
+        <f>ROUND(E35/A51, 0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C51" s="3">
+        <f>D35+C35</f>
+        <v>0</v>
+      </c>
+      <c r="D51" s="3" t="e">
+        <f>ROUND(B35/C51, 0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E51" s="3" t="e">
+        <f>ROUND(E35/D51, 0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F51" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G51" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H51" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I51" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J51" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K51" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="e">
+        <f>ROUND(B36/A36, 0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B52" s="3" t="e">
+        <f>ROUND(E36/A52, 0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C52" s="3">
+        <f>D36+C36</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="3" t="e">
+        <f>ROUND(B36/C52, 0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E52" s="3" t="e">
+        <f>ROUND(E36/D52, 0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F52" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G52" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H52" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I52" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J52" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K52" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="e">
+        <f>ROUND(B37/A37, 0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B53" s="3" t="e">
+        <f>ROUND(E37/A53, 0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C53" s="3">
+        <f>D37+C37</f>
+        <v>0</v>
+      </c>
+      <c r="D53" s="3" t="e">
+        <f>ROUND(B37/C53, 0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E53" s="3" t="e">
+        <f>ROUND(E37/D53, 0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F53" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G53" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H53" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I53" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J53" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K53" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="e">
+        <f>ROUND(B38/A38, 0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B54" s="3" t="e">
+        <f>ROUND(E38/A54, 0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C54" s="3">
+        <f>D38+C38</f>
+        <v>0</v>
+      </c>
+      <c r="D54" s="3" t="e">
+        <f>ROUND(B38/C54, 0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E54" s="3" t="e">
+        <f>ROUND(E38/D54, 0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F54" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G54" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H54" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I54" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J54" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K54" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="e">
         <f>ROUND(B39/A39, 0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H39" s="3" t="e">
-        <f>ROUND(E39/G39, 0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I39" s="3">
+      <c r="B55" s="3" t="e">
+        <f>ROUND(E39/A55, 0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C55" s="3">
         <f>D39+C39</f>
         <v>0</v>
       </c>
-      <c r="J39" s="3" t="e">
-        <f>ROUND(B39/I39, 0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K39" s="3" t="e">
-        <f>ROUND(E39/J39, 0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L39" s="3" t="e">
-        <f>ROUND(LOG(K39, 2), 0)+1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M39" s="3" t="e">
-        <f>H39/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N39" s="3" t="e">
-        <f>ROUND(LOG(H39,2), 0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O39" s="3" t="e">
-        <f>H39</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P39" s="3" t="e">
-        <f>ROUND(O39/J39, 0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q39" s="3" t="e">
-        <f t="shared" si="3"/>
+      <c r="D55" s="3" t="e">
+        <f>ROUND(B39/C55, 0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E55" s="3" t="e">
+        <f>ROUND(E39/D55, 0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F55" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G55" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H55" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I55" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J55" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K55" s="3" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
